--- a/biology/Zoologie/Gobie_à_joues_poreuses/Gobie_à_joues_poreuses.xlsx
+++ b/biology/Zoologie/Gobie_à_joues_poreuses/Gobie_à_joues_poreuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_joues_poreuses</t>
+          <t>Gobie_à_joues_poreuses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobius geniporus · Gobie svelte, Gobie génipore
-Le Gobie à joues poreuses, Gobie svelte ou Gobie génipore (Gobius geniporus) est une espèce de poissons des eaux côtières de la grande famille des gobiidés. C'est une espèce endémique de la mer Méditerranée[1].
+Le Gobie à joues poreuses, Gobie svelte ou Gobie génipore (Gobius geniporus) est une espèce de poissons des eaux côtières de la grande famille des gobiidés. C'est une espèce endémique de la mer Méditerranée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_joues_poreuses</t>
+          <t>Gobie_à_joues_poreuses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Gobius geniporus Valenciennes, 1837[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Gobie génipore[2],[3], Gobie svelte[2],[3], Gobie à joues poreuses[2],[3].
-Gobius geniporus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Gobius geniporus Valenciennes, 1837.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Gobie génipore Gobie svelte Gobie à joues poreuses,.
+Gobius geniporus a pour synonymes :
 Gobius arenae Bath, 1972
 Gobius cruentatus geniporus (Valenciennes, 1837)</t>
         </is>
